--- a/teaching/traditional_assets/database/data/morocco/morocco_beverage_alcoholic.xlsx
+++ b/teaching/traditional_assets/database/data/morocco/morocco_beverage_alcoholic.xlsx
@@ -591,115 +591,118 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.0354</v>
+        <v>0.033</v>
       </c>
       <c r="E2">
-        <v>0.08019999999999999</v>
+        <v>0.036</v>
       </c>
       <c r="G2">
-        <v>0.2214570496556724</v>
+        <v>0.2302457466918715</v>
       </c>
       <c r="H2">
-        <v>0.2214570496556724</v>
+        <v>0.2302457466918715</v>
       </c>
       <c r="I2">
-        <v>0.2156578470460312</v>
+        <v>0.2022684310018903</v>
       </c>
       <c r="J2">
-        <v>0.1362266171225884</v>
+        <v>0.1348456206679269</v>
       </c>
       <c r="K2">
-        <v>32.8</v>
+        <v>32.1</v>
       </c>
       <c r="L2">
-        <v>0.1188836534976441</v>
+        <v>0.1213610586011342</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>39.7</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.05209290119406902</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1.236760124610592</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>39.7</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>0.05209290119406902</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>1.236760124610592</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
       <c r="U2">
-        <v>5.63</v>
+        <v>4.18</v>
       </c>
       <c r="V2">
-        <v>0.006672197203128703</v>
+        <v>0.005484844508594672</v>
       </c>
       <c r="W2">
-        <v>0.2265193370165745</v>
+        <v>0.2316017316017316</v>
       </c>
       <c r="X2">
-        <v>0.08086345048385916</v>
+        <v>0.06193192762843093</v>
       </c>
       <c r="Y2">
-        <v>0.1456558865327154</v>
+        <v>0.1696698039733007</v>
       </c>
       <c r="Z2">
-        <v>2.219987125844866</v>
+        <v>2.10287804102401</v>
       </c>
       <c r="AA2">
-        <v>0.302421336209544</v>
+        <v>0.2835638946308369</v>
       </c>
       <c r="AB2">
-        <v>0.08057895991451958</v>
+        <v>0.0617373318700806</v>
       </c>
       <c r="AC2">
-        <v>0.2218423762950245</v>
+        <v>0.2218265627607563</v>
       </c>
       <c r="AD2">
-        <v>6.01</v>
+        <v>4.46</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>6.01</v>
+        <v>4.46</v>
       </c>
       <c r="AG2">
-        <v>0.3799999999999999</v>
+        <v>0.2800000000000002</v>
       </c>
       <c r="AH2">
-        <v>0.007072169073086926</v>
+        <v>0.00581820079315383</v>
       </c>
       <c r="AI2">
-        <v>0.03935564141182634</v>
+        <v>0.03141730064806988</v>
       </c>
       <c r="AJ2">
-        <v>0.0004501409651969958</v>
+        <v>0.0003672709147669145</v>
       </c>
       <c r="AK2">
-        <v>0.002583627957574109</v>
+        <v>0.002032225286688926</v>
       </c>
       <c r="AL2">
         <v>0</v>
       </c>
       <c r="AM2">
-        <v>-1.81</v>
+        <v>-1.89</v>
       </c>
       <c r="AN2">
-        <v>0.09788273615635179</v>
+        <v>0.08050541516245488</v>
       </c>
       <c r="AP2">
-        <v>0.006188925081433224</v>
+        <v>0.005054151624548741</v>
       </c>
       <c r="AQ2">
-        <v>-32.87292817679558</v>
+        <v>-28.30687830687831</v>
       </c>
     </row>
     <row r="3">
@@ -719,115 +722,118 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.0354</v>
+        <v>0.033</v>
       </c>
       <c r="E3">
-        <v>0.08019999999999999</v>
+        <v>0.036</v>
       </c>
       <c r="G3">
-        <v>0.2214570496556724</v>
+        <v>0.2302457466918715</v>
       </c>
       <c r="H3">
-        <v>0.2214570496556724</v>
+        <v>0.2302457466918715</v>
       </c>
       <c r="I3">
-        <v>0.2156578470460312</v>
+        <v>0.2022684310018903</v>
       </c>
       <c r="J3">
-        <v>0.1362266171225884</v>
+        <v>0.1348456206679269</v>
       </c>
       <c r="K3">
-        <v>32.8</v>
+        <v>32.1</v>
       </c>
       <c r="L3">
-        <v>0.1188836534976441</v>
+        <v>0.1213610586011342</v>
       </c>
       <c r="M3">
-        <v>-0</v>
+        <v>39.7</v>
       </c>
       <c r="N3">
-        <v>-0</v>
+        <v>0.05209290119406902</v>
       </c>
       <c r="O3">
-        <v>-0</v>
+        <v>1.236760124610592</v>
       </c>
       <c r="P3">
-        <v>-0</v>
+        <v>39.7</v>
       </c>
       <c r="Q3">
-        <v>-0</v>
+        <v>0.05209290119406902</v>
       </c>
       <c r="R3">
-        <v>-0</v>
+        <v>1.236760124610592</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
       <c r="U3">
-        <v>5.63</v>
+        <v>4.18</v>
       </c>
       <c r="V3">
-        <v>0.006672197203128703</v>
+        <v>0.005484844508594672</v>
       </c>
       <c r="W3">
-        <v>0.2265193370165745</v>
+        <v>0.2316017316017316</v>
       </c>
       <c r="X3">
-        <v>0.08086345048385916</v>
+        <v>0.06193192762843093</v>
       </c>
       <c r="Y3">
-        <v>0.1456558865327154</v>
+        <v>0.1696698039733007</v>
       </c>
       <c r="Z3">
-        <v>2.219987125844866</v>
+        <v>2.10287804102401</v>
       </c>
       <c r="AA3">
-        <v>0.302421336209544</v>
+        <v>0.2835638946308369</v>
       </c>
       <c r="AB3">
-        <v>0.08057895991451958</v>
+        <v>0.0617373318700806</v>
       </c>
       <c r="AC3">
-        <v>0.2218423762950245</v>
+        <v>0.2218265627607563</v>
       </c>
       <c r="AD3">
-        <v>6.01</v>
+        <v>4.46</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>6.01</v>
+        <v>4.46</v>
       </c>
       <c r="AG3">
-        <v>0.3799999999999999</v>
+        <v>0.2800000000000002</v>
       </c>
       <c r="AH3">
-        <v>0.007072169073086926</v>
+        <v>0.00581820079315383</v>
       </c>
       <c r="AI3">
-        <v>0.03935564141182634</v>
+        <v>0.03141730064806988</v>
       </c>
       <c r="AJ3">
-        <v>0.0004501409651969958</v>
+        <v>0.0003672709147669145</v>
       </c>
       <c r="AK3">
-        <v>0.002583627957574109</v>
+        <v>0.002032225286688926</v>
       </c>
       <c r="AL3">
         <v>0</v>
       </c>
       <c r="AM3">
-        <v>-1.81</v>
+        <v>-1.89</v>
       </c>
       <c r="AN3">
-        <v>0.09788273615635179</v>
+        <v>0.08050541516245488</v>
       </c>
       <c r="AP3">
-        <v>0.006188925081433224</v>
+        <v>0.005054151624548741</v>
       </c>
       <c r="AQ3">
-        <v>-32.87292817679558</v>
+        <v>-28.30687830687831</v>
       </c>
     </row>
   </sheetData>
